--- a/media/system_files/employee_assign_template.xlsx
+++ b/media/system_files/employee_assign_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F96F3-AEE0-4941-9ED3-EFCA0E787888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9086381-9F8A-4E88-8E51-1C517D99BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1153,7 +1153,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,30 +1164,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="double">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1197,10 +1173,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1209,54 +1185,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1265,60 +1193,6 @@
       </top>
       <bottom style="double">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1624,32 +1498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1672,6 +1520,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,7 +1569,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
@@ -1715,7 +1578,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,19 +1593,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,50 +1662,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="72" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1859,6 +1680,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1883,6 +1737,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,62 +1803,179 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2006,221 +1983,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2605,8 +2441,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37:W37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B23" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33:AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2625,196 +2461,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:32" ht="27.9" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="64" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="63" t="s">
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="16" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
     </row>
     <row r="3" spans="1:32" ht="27.9" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83" t="s">
+      <c r="L3" s="81"/>
+      <c r="M3" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="81" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="85" t="s">
+      <c r="T3" s="83"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="86"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="52"/>
     </row>
     <row r="4" spans="1:32" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="65" t="s">
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="65" t="s">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="66" t="s">
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
     </row>
     <row r="5" spans="1:32" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="33" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="17"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="63"/>
       <c r="AC5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2829,986 +2665,986 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="39"/>
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" thickTop="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" spans="1:32" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:32" ht="23.1" customHeight="1" thickTop="1">
       <c r="A9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="164"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="171" t="s">
+      <c r="N9" s="156"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="173"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="155"/>
     </row>
     <row r="10" spans="1:32" ht="23.1" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="167"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="134"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="168" t="s">
+      <c r="N10" s="132"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="169"/>
-      <c r="Z10" s="169"/>
-      <c r="AA10" s="170"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="148"/>
     </row>
     <row r="11" spans="1:32" ht="23.1" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="167"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="134"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="168" t="s">
+      <c r="N11" s="132"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="170"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="148"/>
     </row>
     <row r="12" spans="1:32" ht="23.1" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="167"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="167"/>
-      <c r="X12" s="168" t="s">
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="170"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="148"/>
     </row>
     <row r="13" spans="1:32" ht="23.1" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="167"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="168" t="s">
+      <c r="N13" s="132"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="170"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="148"/>
     </row>
     <row r="14" spans="1:32" ht="23.1" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="168" t="s">
+      <c r="N14" s="132"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="Y14" s="169"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="148"/>
     </row>
     <row r="15" spans="1:32" ht="23.1" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="167"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="166"/>
-      <c r="W15" s="167"/>
-      <c r="X15" s="168" t="s">
+      <c r="N15" s="132"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="169"/>
-      <c r="AA15" s="170"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="148"/>
     </row>
     <row r="16" spans="1:32" ht="23.1" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="167"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="166"/>
-      <c r="T16" s="166"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="167"/>
-      <c r="X16" s="168" t="s">
+      <c r="N16" s="132"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="169"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="170"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="148"/>
     </row>
     <row r="17" spans="1:27" ht="23.1" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="167"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="167"/>
-      <c r="X17" s="168" t="s">
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="Y17" s="169"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="170"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="148"/>
     </row>
     <row r="18" spans="1:27" ht="23.1" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="167"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="167"/>
-      <c r="X18" s="168" t="s">
+      <c r="N18" s="132"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="170"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="148"/>
     </row>
     <row r="19" spans="1:27" ht="23.1" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="167"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="134"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="167"/>
-      <c r="X19" s="168" t="s">
+      <c r="N19" s="132"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="Y19" s="169"/>
-      <c r="Z19" s="169"/>
-      <c r="AA19" s="170"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="148"/>
     </row>
     <row r="20" spans="1:27" ht="23.1" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="167"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="168" t="s">
+      <c r="N20" s="132"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="133"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" s="169"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="170"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="148"/>
     </row>
     <row r="21" spans="1:27" ht="23.1" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="167"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="134"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="166"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="167"/>
-      <c r="X21" s="168" t="s">
+      <c r="N21" s="132"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="Y21" s="169"/>
-      <c r="Z21" s="169"/>
-      <c r="AA21" s="170"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="148"/>
     </row>
     <row r="22" spans="1:27" ht="23.1" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="56"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="91"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="23.1" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="91"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="23.1" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="91"/>
-    </row>
-    <row r="25" spans="1:27" ht="23.1" customHeight="1" thickBot="1">
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="45"/>
+    </row>
+    <row r="25" spans="1:27" ht="23.1" customHeight="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="94"/>
-    </row>
-    <row r="26" spans="1:27" ht="23.1" customHeight="1" thickTop="1">
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="48"/>
+    </row>
+    <row r="26" spans="1:27" ht="23.1" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="42" t="s">
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="45" t="s">
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="47"/>
+      <c r="Y26" s="166"/>
+      <c r="Z26" s="166"/>
+      <c r="AA26" s="166"/>
     </row>
     <row r="27" spans="1:27" ht="23.1" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="48" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="51" t="s">
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="53"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
     </row>
     <row r="28" spans="1:27" ht="25.2" customHeight="1" thickTop="1">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107" t="s">
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107" t="s">
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107" t="s">
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="97" t="s">
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97" t="s">
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="98"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="163"/>
     </row>
     <row r="29" spans="1:27" ht="18" customHeight="1">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="96"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="50"/>
     </row>
     <row r="30" spans="1:27" ht="18" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="86"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
     </row>
     <row r="31" spans="1:27" ht="18" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="86"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="52"/>
     </row>
     <row r="32" spans="1:27" ht="18" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="26"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="24"/>
     </row>
     <row r="33" spans="1:28" ht="18" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="23"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="21"/>
     </row>
     <row r="34" spans="1:28" ht="18" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="23"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="21"/>
     </row>
     <row r="35" spans="1:28" ht="18" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="26"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="1:28" ht="18" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="23"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="21"/>
     </row>
     <row r="37" spans="1:28" ht="18" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="103"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="53"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -3818,483 +3654,483 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="18.75" customHeight="1">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105" t="s">
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105" t="s">
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105" t="s">
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105" t="s">
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="21" t="s">
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="103"/>
-      <c r="X38" s="105" t="s">
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="Y38" s="105"/>
-      <c r="Z38" s="105"/>
-      <c r="AA38" s="155"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="160"/>
     </row>
     <row r="39" spans="1:28" ht="21" customHeight="1" thickBot="1">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157" t="s">
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="158" t="s">
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="158" t="s">
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
-      <c r="S39" s="160"/>
-      <c r="T39" s="158"/>
-      <c r="U39" s="159"/>
-      <c r="V39" s="159"/>
-      <c r="W39" s="160"/>
-      <c r="X39" s="158"/>
-      <c r="Y39" s="159"/>
-      <c r="Z39" s="159"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="140"/>
+      <c r="S39" s="141"/>
+      <c r="T39" s="139"/>
+      <c r="U39" s="140"/>
+      <c r="V39" s="140"/>
+      <c r="W39" s="141"/>
+      <c r="X39" s="139"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
       <c r="AA39" s="161"/>
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="1:28" ht="70.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="127"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="127"/>
-      <c r="X40" s="127"/>
-      <c r="Y40" s="127"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="128"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="105"/>
     </row>
     <row r="41" spans="1:28" ht="22.5" customHeight="1" thickTop="1">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="130"/>
-      <c r="T41" s="130"/>
-      <c r="U41" s="130"/>
-      <c r="V41" s="131" t="s">
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="W41" s="132"/>
-      <c r="X41" s="132"/>
-      <c r="Y41" s="132"/>
-      <c r="Z41" s="132"/>
-      <c r="AA41" s="133"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="110"/>
     </row>
     <row r="42" spans="1:28" ht="21.9" customHeight="1">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="135"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
-      <c r="I42" s="135"/>
-      <c r="J42" s="135"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
-      <c r="N42" s="135"/>
-      <c r="O42" s="135"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="135"/>
-      <c r="S42" s="135"/>
-      <c r="T42" s="135"/>
-      <c r="U42" s="136"/>
-      <c r="V42" s="143" t="s">
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="113"/>
+      <c r="V42" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="W42" s="144"/>
-      <c r="X42" s="144"/>
-      <c r="Y42" s="144"/>
-      <c r="Z42" s="144"/>
-      <c r="AA42" s="145"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="122"/>
     </row>
     <row r="43" spans="1:28" ht="21.9" customHeight="1">
-      <c r="A43" s="137"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
-      <c r="P43" s="138"/>
-      <c r="Q43" s="138"/>
-      <c r="R43" s="138"/>
-      <c r="S43" s="138"/>
-      <c r="T43" s="138"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="146"/>
-      <c r="W43" s="147"/>
-      <c r="X43" s="147"/>
-      <c r="Y43" s="147"/>
-      <c r="Z43" s="147"/>
-      <c r="AA43" s="148"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="115"/>
+      <c r="S43" s="115"/>
+      <c r="T43" s="115"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="123"/>
+      <c r="W43" s="124"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="125"/>
     </row>
     <row r="44" spans="1:28" ht="21.9" customHeight="1">
-      <c r="A44" s="137"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="138"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="139"/>
-      <c r="V44" s="143" t="s">
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="115"/>
+      <c r="N44" s="115"/>
+      <c r="O44" s="115"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="115"/>
+      <c r="S44" s="115"/>
+      <c r="T44" s="115"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="W44" s="144"/>
-      <c r="X44" s="144"/>
-      <c r="Y44" s="144"/>
-      <c r="Z44" s="144"/>
-      <c r="AA44" s="145"/>
+      <c r="W44" s="121"/>
+      <c r="X44" s="121"/>
+      <c r="Y44" s="121"/>
+      <c r="Z44" s="121"/>
+      <c r="AA44" s="122"/>
     </row>
     <row r="45" spans="1:28" ht="21.9" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="139"/>
-      <c r="V45" s="146"/>
-      <c r="W45" s="147"/>
-      <c r="X45" s="147"/>
-      <c r="Y45" s="147"/>
-      <c r="Z45" s="147"/>
-      <c r="AA45" s="148"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="115"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="115"/>
+      <c r="O45" s="115"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="115"/>
+      <c r="S45" s="115"/>
+      <c r="T45" s="115"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="123"/>
+      <c r="W45" s="124"/>
+      <c r="X45" s="124"/>
+      <c r="Y45" s="124"/>
+      <c r="Z45" s="124"/>
+      <c r="AA45" s="125"/>
     </row>
     <row r="46" spans="1:28" ht="21.9" customHeight="1">
-      <c r="A46" s="137"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
-      <c r="P46" s="138"/>
-      <c r="Q46" s="138"/>
-      <c r="R46" s="138"/>
-      <c r="S46" s="138"/>
-      <c r="T46" s="138"/>
-      <c r="U46" s="139"/>
-      <c r="V46" s="149" t="s">
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="115"/>
+      <c r="R46" s="115"/>
+      <c r="S46" s="115"/>
+      <c r="T46" s="115"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="W46" s="150"/>
-      <c r="X46" s="150"/>
-      <c r="Y46" s="150"/>
-      <c r="Z46" s="150"/>
-      <c r="AA46" s="151"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="127"/>
+      <c r="Y46" s="127"/>
+      <c r="Z46" s="127"/>
+      <c r="AA46" s="128"/>
     </row>
     <row r="47" spans="1:28" ht="21.9" customHeight="1" thickBot="1">
-      <c r="A47" s="140"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141"/>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="141"/>
-      <c r="R47" s="141"/>
-      <c r="S47" s="141"/>
-      <c r="T47" s="141"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="152"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="153"/>
-      <c r="Z47" s="153"/>
-      <c r="AA47" s="154"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="119"/>
+      <c r="V47" s="129"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="131"/>
     </row>
     <row r="48" spans="1:28" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="177" t="s">
+      <c r="A48" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108" t="s">
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108" t="s">
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108" t="s">
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="135"/>
+      <c r="P48" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="108"/>
-      <c r="V48" s="108" t="s">
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="135"/>
+      <c r="V48" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="W48" s="108"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="108"/>
-      <c r="AA48" s="110"/>
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
+      <c r="Y48" s="135"/>
+      <c r="Z48" s="135"/>
+      <c r="AA48" s="159"/>
     </row>
     <row r="49" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="112"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112" t="s">
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="112" t="s">
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="Q49" s="112"/>
-      <c r="R49" s="112"/>
-      <c r="S49" s="112"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="112"/>
-      <c r="V49" s="117" t="s">
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="W49" s="118"/>
-      <c r="X49" s="118"/>
-      <c r="Y49" s="118"/>
-      <c r="Z49" s="118"/>
-      <c r="AA49" s="119"/>
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="96"/>
     </row>
     <row r="50" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="114"/>
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="114"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="114"/>
-      <c r="T50" s="114"/>
-      <c r="U50" s="114"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="121"/>
-      <c r="X50" s="121"/>
-      <c r="Y50" s="121"/>
-      <c r="Z50" s="121"/>
-      <c r="AA50" s="122"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="97"/>
+      <c r="W50" s="98"/>
+      <c r="X50" s="98"/>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="98"/>
+      <c r="AA50" s="99"/>
     </row>
     <row r="51" spans="1:27" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A51" s="115"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="116"/>
-      <c r="T51" s="116"/>
-      <c r="U51" s="116"/>
-      <c r="V51" s="123"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="124"/>
-      <c r="AA51" s="125"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="101"/>
+      <c r="X51" s="101"/>
+      <c r="Y51" s="101"/>
+      <c r="Z51" s="101"/>
+      <c r="AA51" s="102"/>
     </row>
     <row r="1048576" spans="14:27">
-      <c r="N1048576" s="54"/>
-      <c r="O1048576" s="55"/>
-      <c r="P1048576" s="55"/>
-      <c r="Q1048576" s="55"/>
-      <c r="R1048576" s="55"/>
-      <c r="S1048576" s="55"/>
-      <c r="T1048576" s="55"/>
-      <c r="U1048576" s="55"/>
-      <c r="V1048576" s="55"/>
-      <c r="W1048576" s="56"/>
-      <c r="X1048576" s="54"/>
-      <c r="Y1048576" s="55"/>
-      <c r="Z1048576" s="55"/>
-      <c r="AA1048576" s="91"/>
+      <c r="N1048576" s="40"/>
+      <c r="O1048576" s="41"/>
+      <c r="P1048576" s="41"/>
+      <c r="Q1048576" s="41"/>
+      <c r="R1048576" s="41"/>
+      <c r="S1048576" s="41"/>
+      <c r="T1048576" s="41"/>
+      <c r="U1048576" s="41"/>
+      <c r="V1048576" s="41"/>
+      <c r="W1048576" s="42"/>
+      <c r="X1048576" s="40"/>
+      <c r="Y1048576" s="41"/>
+      <c r="Z1048576" s="41"/>
+      <c r="AA1048576" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="175">
@@ -4307,6 +4143,21 @@
     <mergeCell ref="X20:AA20"/>
     <mergeCell ref="N21:W21"/>
     <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="L35:S35"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T32:W32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:K37"/>
@@ -4360,8 +4211,20 @@
     <mergeCell ref="K48:O48"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="P48:U48"/>
-    <mergeCell ref="V48:AA48"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:S28"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:K35"/>
     <mergeCell ref="A49:E51"/>
     <mergeCell ref="F49:J51"/>
     <mergeCell ref="K49:O51"/>
@@ -4374,26 +4237,6 @@
     <mergeCell ref="V42:AA43"/>
     <mergeCell ref="V44:AA45"/>
     <mergeCell ref="V46:AA47"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:S28"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:S35"/>
     <mergeCell ref="G32:K32"/>
     <mergeCell ref="L32:S32"/>
     <mergeCell ref="A33:C33"/>
@@ -4404,12 +4247,8 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:S34"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="L29:S29"/>
     <mergeCell ref="T29:W29"/>
     <mergeCell ref="A30:C30"/>
@@ -4422,11 +4261,6 @@
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="L31:S31"/>
     <mergeCell ref="T31:W31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T33:W33"/>
     <mergeCell ref="T34:W34"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A2:C2"/>
@@ -4450,6 +4284,7 @@
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="V3:AA3"/>
     <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="G29:K29"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="X34:AA34"/>
     <mergeCell ref="X33:AA33"/>
@@ -4473,6 +4308,7 @@
     <mergeCell ref="N25:AA25"/>
     <mergeCell ref="X29:AA29"/>
     <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="T33:W33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
